--- a/data/broker-testcase_src.xlsx
+++ b/data/broker-testcase_src.xlsx
@@ -9,25 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10695" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="16275" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="交易商接口测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="接口1" sheetId="1" r:id="rId1"/>
+    <sheet name="接口2" sheetId="2" r:id="rId2"/>
+    <sheet name="接口3" sheetId="3" r:id="rId3"/>
+    <sheet name="接口4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>uid</t>
   </si>
   <si>
-    <t>测试用例(入口参数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20165943</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -36,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期望值(出口参数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +76,113 @@
   </si>
   <si>
     <t>2016431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例参数(入口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值(出口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/getCommentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppCommentController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aboutId不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parentId不填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http_statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20165943</t>
+  </si>
+  <si>
+    <t>全部都填/正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageIndex默认正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize默认/正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +205,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,10 +232,90 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -124,13 +324,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -481,182 +725,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3"/>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
+      <c r="I10" s="8">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="2">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>